--- a/biology/Botanique/Chou_moëllier/Chou_moëllier.xlsx
+++ b/biology/Botanique/Chou_moëllier/Chou_moëllier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chou_mo%C3%ABllier</t>
+          <t>Chou_moëllier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassica oleracea var. medullosa
-Le chou moëllier ou chou mollier (Brassica oleracea var. medullosa Thell. ou Brassica oleracea Groupe Medullosa) est une variété de chou, originaire de l'ouest de la France, qui possède une tige amincie vers le bas et renflée vers le milieu et vers le haut. Le chou moëllier est cultivé comme plante fourragère[1], notamment le cultivar 'Maris-Kestrel'[2].
+Le chou moëllier ou chou mollier (Brassica oleracea var. medullosa Thell. ou Brassica oleracea Groupe Medullosa) est une variété de chou, originaire de l'ouest de la France, qui possède une tige amincie vers le bas et renflée vers le milieu et vers le haut. Le chou moëllier est cultivé comme plante fourragère, notamment le cultivar 'Maris-Kestrel'.
 La plante a été décrite par Albert Thellung, en 1918.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chou_mo%C3%ABllier</t>
+          <t>Chou_moëllier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chou_mo%C3%ABllier</t>
+          <t>Chou_moëllier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chou cavalier</t>
         </is>
